--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ngf-Sorcs3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ngf-Sorcs3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Ngf</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,43 +522,43 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7246536666666668</v>
+        <v>0.27169</v>
       </c>
       <c r="H2">
-        <v>2.173961</v>
+        <v>0.81507</v>
       </c>
       <c r="I2">
-        <v>0.1791272621505297</v>
+        <v>0.04814835840308388</v>
       </c>
       <c r="J2">
-        <v>0.1791272621505298</v>
+        <v>0.04814835840308387</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.004327333333333333</v>
+        <v>0.043129</v>
       </c>
       <c r="N2">
-        <v>0.012982</v>
+        <v>0.129387</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.003135817966888889</v>
+        <v>0.01171771801</v>
       </c>
       <c r="R2">
-        <v>0.028222361702</v>
+        <v>0.10545946209</v>
       </c>
       <c r="S2">
-        <v>0.1791272621505297</v>
+        <v>0.04814835840308388</v>
       </c>
       <c r="T2">
-        <v>0.1791272621505298</v>
+        <v>0.04814835840308387</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,13 +584,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -593,46 +599,170 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.320814666666667</v>
+        <v>0.7246536666666668</v>
       </c>
       <c r="H3">
-        <v>9.962444</v>
+        <v>2.173961</v>
       </c>
       <c r="I3">
-        <v>0.8208727378494701</v>
+        <v>0.1284216734542145</v>
       </c>
       <c r="J3">
-        <v>0.8208727378494702</v>
+        <v>0.1284216734542145</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.043129</v>
+      </c>
+      <c r="N3">
+        <v>0.129387</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0.03125358798966667</v>
+      </c>
+      <c r="R3">
+        <v>0.281282291907</v>
+      </c>
+      <c r="S3">
+        <v>0.1284216734542145</v>
+      </c>
+      <c r="T3">
+        <v>0.1284216734542145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4.641773333333333</v>
+      </c>
+      <c r="H4">
+        <v>13.92532</v>
+      </c>
+      <c r="I4">
+        <v>0.8226057862976579</v>
+      </c>
+      <c r="J4">
+        <v>0.8226057862976578</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.043129</v>
+      </c>
+      <c r="N4">
+        <v>0.129387</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0.2001950420933333</v>
+      </c>
+      <c r="R4">
+        <v>1.80175537884</v>
+      </c>
+      <c r="S4">
+        <v>0.8226057862976579</v>
+      </c>
+      <c r="T4">
+        <v>0.8226057862976578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M3">
-        <v>0.004327333333333333</v>
-      </c>
-      <c r="N3">
-        <v>0.012982</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.01437027200088889</v>
-      </c>
-      <c r="R3">
-        <v>0.129332448008</v>
-      </c>
-      <c r="S3">
-        <v>0.8208727378494701</v>
-      </c>
-      <c r="T3">
-        <v>0.8208727378494702</v>
+      <c r="G5">
+        <v>0.004650666666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.013952</v>
+      </c>
+      <c r="I5">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="J5">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.043129</v>
+      </c>
+      <c r="N5">
+        <v>0.129387</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0.0002005786026666667</v>
+      </c>
+      <c r="R5">
+        <v>0.001805207424</v>
+      </c>
+      <c r="S5">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="T5">
+        <v>0.0008241818450437709</v>
       </c>
     </row>
   </sheetData>
